--- a/tblresumenfactura.xlsx
+++ b/tblresumenfactura.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>TotalServGravados</t>
   </si>
@@ -64,22 +64,22 @@
     <t>TotalDescuentos</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>99378.00</t>
-  </si>
-  <si>
-    <t>68094.76</t>
-  </si>
-  <si>
-    <t>8852.32</t>
-  </si>
-  <si>
-    <t>76947.08</t>
-  </si>
-  <si>
-    <t>31283.24</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>115267.32000</t>
+  </si>
+  <si>
+    <t>102152.99000</t>
+  </si>
+  <si>
+    <t>13761.02000</t>
+  </si>
+  <si>
+    <t>115914.01000</t>
+  </si>
+  <si>
+    <t>13114.33000</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -509,8 +509,8 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -530,14 +530,14 @@
       <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="O2" t="s">
+        <v>16</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>

--- a/tblresumenfactura.xlsx
+++ b/tblresumenfactura.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>TotalServGravados</t>
   </si>
@@ -64,22 +64,16 @@
     <t>TotalDescuentos</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>115267.32000</t>
-  </si>
-  <si>
-    <t>102152.99000</t>
-  </si>
-  <si>
-    <t>13761.02000</t>
-  </si>
-  <si>
-    <t>115914.01000</t>
-  </si>
-  <si>
-    <t>13114.33000</t>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>111692.10000</t>
+  </si>
+  <si>
+    <t>9192.44000</t>
+  </si>
+  <si>
+    <t>120884.54000</t>
   </si>
 </sst>
 </file>
@@ -525,22 +519,22 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="M2">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
         <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tblresumenfactura.xlsx
+++ b/tblresumenfactura.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>TotalServGravados</t>
   </si>
@@ -67,13 +67,22 @@
     <t>0.00000</t>
   </si>
   <si>
-    <t>111692.10000</t>
-  </si>
-  <si>
-    <t>9192.44000</t>
-  </si>
-  <si>
-    <t>120884.54000</t>
+    <t>43799.33000</t>
+  </si>
+  <si>
+    <t>37229.43050</t>
+  </si>
+  <si>
+    <t>4839.82597</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>42069.25647</t>
+  </si>
+  <si>
+    <t>6569.89950</t>
   </si>
 </sst>
 </file>
@@ -494,8 +503,8 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -503,8 +512,8 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -512,29 +521,29 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2">
+        <v>21</v>
+      </c>
+      <c r="O2">
         <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
